--- a/Robot16_GetTwitterMentions/Mentions.xlsx
+++ b/Robot16_GetTwitterMentions/Mentions.xlsx
@@ -8,14 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UiPath Course\UiPathRobots\Robot16_GetTwitterMentions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC3935A-B86F-424A-BCB4-9BC8C51A9F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8846F0B3-9B81-4E4B-95F5-43F5BA2390B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30975" yWindow="3855" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{C05D3CDB-7F5D-43B6-BB9E-4352FB3CB483}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{C05D3CDB-7F5D-43B6-BB9E-4352FB3CB483}"/>
   </bookViews>
   <sheets>
     <sheet name="japan" sheetId="4" r:id="rId1"/>
-    <sheet name="christmas" sheetId="5" r:id="rId2"/>
-    <sheet name="takvim" sheetId="2" r:id="rId3"/>
+    <sheet name="takvim" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="90">
   <si>
     <t>Account Tag</t>
   </si>
@@ -321,31 +320,6 @@
   </si>
   <si>
     <t>https://twitter.com/puyoer/status/1739073440706093462</t>
-  </si>
-  <si>
-    <t>_IzzyGrxco</t>
-  </si>
-  <si>
-    <t>18 Views</t>
-  </si>
-  <si>
-    <t>THATS MY GOATTTT merry christmas ily</t>
-  </si>
-  <si>
-    <t>https://twitter.com/_IzzyGrxco/status/1739073468342108496</t>
-  </si>
-  <si>
-    <t>SunitaHines</t>
-  </si>
-  <si>
-    <t>16 Views</t>
-  </si>
-  <si>
-    <t>Logan
-May you have a wonderfully blessed new week and a wonderfully blessed Merry Christmas in our Lord Jesus</t>
-  </si>
-  <si>
-    <t>https://twitter.com/SunitaHines/status/1739073468316995820</t>
   </si>
 </sst>
 </file>
@@ -1036,120 +1010,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3E438C7-CE61-4012-B5CE-53714654DCF1}">
-  <dimension ref="A1:J3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B2" s="1">
-        <v>45285</v>
-      </c>
-      <c r="C2" s="1">
-        <v>45283</v>
-      </c>
-      <c r="D2" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="255" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="1">
-        <v>45285</v>
-      </c>
-      <c r="C3" s="1">
-        <v>45283</v>
-      </c>
-      <c r="D3" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="J3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DB3871-A47A-41E5-B4EE-67C96361C64A}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
